--- a/Chapter_1/ex1-24.xlsx
+++ b/Chapter_1/ex1-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\source\repos\SICP\Chapter_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6BCB96-7316-4E1B-AC6C-623FEAEC2C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517A0611-19D2-48DD-A67C-A555E42C36EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E25D563F-6122-41CA-AE0B-322451F311DF}"/>
   </bookViews>
@@ -68,16 +68,19 @@
     <t>ratio</t>
   </si>
   <si>
-    <t>b) Not quite, the order of growth seems to be slower than log n, with primes near a 1,000,000 taking 1.25 longer than primes near 1000</t>
-  </si>
-  <si>
     <t xml:space="preserve">c) </t>
+  </si>
+  <si>
+    <t>b) Not quite, the alg is fastern than log n, with primes near a 1,000,000 taking 1.57 longer than primes near 1000 as opposed to the predicted twice as long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -162,15 +165,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9EC608-5D62-494B-884E-A91DCA485C4A}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -498,9 +506,10 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -511,7 +520,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -530,13 +539,13 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1009</v>
       </c>
       <c r="C3" s="4">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -545,17 +554,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1013</v>
       </c>
       <c r="C4" s="4">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5">
         <f>AVERAGE(C3:C5)</f>
-        <v>5.333333333333333</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -563,13 +572,13 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1019</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -578,27 +587,27 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4">
+      <c r="E6" s="14">
         <f>D8/D4</f>
-        <v>1.2500000000000002</v>
+        <v>1.5652173913043479</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1000003</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
@@ -607,17 +616,17 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1000033</v>
       </c>
       <c r="C8" s="4">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5">
         <f>AVERAGE(C7:C9)</f>
-        <v>6.666666666666667</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -625,13 +634,13 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1000037</v>
       </c>
       <c r="C9" s="4">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -640,7 +649,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -650,8 +659,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -661,8 +671,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -674,69 +685,80 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P14" s="13"/>
+      <c r="R14" s="12"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P15" s="13"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P16" s="13"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P17" s="13"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>2</v>
@@ -748,59 +770,71 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P18" s="13"/>
+      <c r="R18" s="12"/>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P19" s="13"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P20" s="13"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P21" s="13"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P22" s="13"/>
+      <c r="R22" s="12"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -809,8 +843,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P23" s="13"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -820,8 +856,10 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P24" s="13"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -831,6 +869,81 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
+      <c r="P25" s="13"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="13"/>
+      <c r="R26" s="12"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="13"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="13"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P29" s="13"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P30" s="13"/>
+      <c r="R30" s="12"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P31" s="13"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P32" s="13"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P33" s="13"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P34" s="13"/>
+      <c r="R34" s="12"/>
+      <c r="T34" s="13"/>
+    </row>
+    <row r="35" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P35" s="13"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P36" s="13"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P37" s="13"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P38" s="13"/>
+      <c r="R38" s="12"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P39" s="13"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P40" s="13"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P41" s="13"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="16:20" x14ac:dyDescent="0.25">
+      <c r="P42" s="13"/>
+      <c r="R42" s="12"/>
+      <c r="T42" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
